--- a/uefa_euro_2016_goalkeeping_stats.xlsx
+++ b/uefa_euro_2016_goalkeeping_stats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Wojciech Szczęsny</t>
   </si>
@@ -187,13 +187,16 @@
   </si>
   <si>
     <t>Croatia</t>
+  </si>
+  <si>
+    <t>matches</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +224,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,7 +273,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -304,13 +313,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -330,6 +344,8 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -349,6 +365,8 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -678,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -693,9 +711,10 @@
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -714,8 +733,11 @@
       <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -734,8 +756,11 @@
       <c r="F2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -754,8 +779,11 @@
       <c r="F3" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -774,8 +802,11 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -794,8 +825,11 @@
       <c r="F5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,8 +848,11 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -834,8 +871,11 @@
       <c r="F7" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -854,8 +894,11 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -874,8 +917,11 @@
       <c r="F9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -894,8 +940,11 @@
       <c r="F10" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -914,12 +963,15 @@
       <c r="F11" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="2">
@@ -934,12 +986,15 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="2">
@@ -954,12 +1009,15 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="2">
@@ -974,12 +1032,15 @@
       <c r="F14" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="2">
@@ -994,8 +1055,11 @@
       <c r="F15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1014,12 +1078,15 @@
       <c r="F16" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="2">
@@ -1034,12 +1101,15 @@
       <c r="F17" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="2">
@@ -1054,8 +1124,11 @@
       <c r="F18" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -1074,8 +1147,11 @@
       <c r="F19" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -1094,8 +1170,11 @@
       <c r="F20" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1114,8 +1193,11 @@
       <c r="F21" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1216,11 @@
       <c r="F22" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -1154,8 +1239,11 @@
       <c r="F23" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1174,8 +1262,11 @@
       <c r="F24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1194,8 +1285,11 @@
       <c r="F25" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1214,12 +1308,15 @@
       <c r="F26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="2">
@@ -1234,12 +1331,15 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="2">
@@ -1253,12 +1353,16 @@
       </c>
       <c r="F28" s="2">
         <v>5</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:F28">
     <sortCondition ref="B2:B28"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/uefa_euro_2016_goalkeeping_stats.xlsx
+++ b/uefa_euro_2016_goalkeeping_stats.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Wojciech Szczęsny</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>matches</t>
+  </si>
+  <si>
+    <t>Nothern Ireland</t>
   </si>
 </sst>
 </file>
@@ -318,11 +321,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1086,7 +1090,7 @@
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="2">
@@ -1109,8 +1113,8 @@
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>

--- a/uefa_euro_2016_goalkeeping_stats.xlsx
+++ b/uefa_euro_2016_goalkeeping_stats.xlsx
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">

--- a/uefa_euro_2016_goalkeeping_stats.xlsx
+++ b/uefa_euro_2016_goalkeeping_stats.xlsx
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1359,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="G28" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
